--- a/ZM.xlsx
+++ b/ZM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9731492E-1D03-DC49-8B4A-D18DE1BCB36F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E58EEF-38AB-814F-9A17-B48576AFAEBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-52260" yWindow="-5940" windowWidth="26120" windowHeight="26900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,7 +283,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -612,21 +612,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -654,7 +654,7 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1425,7 +1425,7 @@
         <v>151.47800000000001</v>
       </c>
       <c r="E16" s="22">
-        <f t="shared" ref="C16:G16" si="1">SUM(E11:E14)</f>
+        <f t="shared" ref="E16" si="1">SUM(E11:E14)</f>
         <v>330.517</v>
       </c>
       <c r="F16" s="22">
@@ -1449,7 +1449,7 @@
         <v>9122.5981209600031</v>
       </c>
       <c r="K16" s="17">
-        <f t="shared" ref="I16:K16" si="2">K13*K14</f>
+        <f t="shared" ref="K16" si="2">K13*K14</f>
         <v>12133.05550087681</v>
       </c>
       <c r="L16" s="17">
@@ -1598,7 +1598,7 @@
         <v>1760.5705346052346</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" ref="G18:U18" si="8">H16*G31</f>
+        <f t="shared" ref="H18:U18" si="8">H16*G31</f>
         <v>2816.9128553683754</v>
       </c>
       <c r="I18" s="5">
@@ -2080,59 +2080,59 @@
         <v>12</v>
       </c>
       <c r="H24" s="5">
-        <f>G41*$G$4</f>
+        <f t="shared" ref="H24:U24" si="24">G41*$G$4</f>
         <v>29.88468549919746</v>
       </c>
       <c r="I24" s="5">
-        <f>H41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>49.447046153078631</v>
       </c>
       <c r="J24" s="5">
-        <f>I41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>82.084905590945723</v>
       </c>
       <c r="K24" s="5">
-        <f>J41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>129.66447252756257</v>
       </c>
       <c r="L24" s="5">
-        <f>K41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>187.97072892272874</v>
       </c>
       <c r="M24" s="5">
-        <f>L41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>257.22057305542631</v>
       </c>
       <c r="N24" s="5">
-        <f>M41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>339.07594767023716</v>
       </c>
       <c r="O24" s="5">
-        <f>N41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>435.42896450654854</v>
       </c>
       <c r="P24" s="5">
-        <f>O41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>548.43140904459278</v>
       </c>
       <c r="Q24" s="5">
-        <f>P41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>680.52760646151603</v>
       </c>
       <c r="R24" s="5">
-        <f>Q41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>833.88867993890415</v>
       </c>
       <c r="S24" s="5">
-        <f>R41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>1010.5346602912731</v>
       </c>
       <c r="T24" s="5">
-        <f>S41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>1212.6718868207822</v>
       </c>
       <c r="U24" s="5">
-        <f>T41*$G$4</f>
+        <f t="shared" si="24"/>
         <v>1442.7061428047139</v>
       </c>
     </row>
@@ -2161,59 +2161,59 @@
         <v>634.57053460523457</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" ref="H25:P25" si="24">H23+H24</f>
+        <f t="shared" ref="H25:P25" si="25">H23+H24</f>
         <v>1222.6475408675731</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2039.8662148666936</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2973.7229335385537</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3644.1410246978839</v>
       </c>
       <c r="L25" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>4328.1152582935983</v>
       </c>
       <c r="M25" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5115.9609134256752</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6022.0635522694593</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7062.6527836277619</v>
       </c>
       <c r="P25" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8256.0123385577026</v>
       </c>
       <c r="Q25" s="5">
-        <f t="shared" ref="Q25:S25" si="25">Q23+Q24</f>
+        <f t="shared" ref="Q25:S25" si="26">Q23+Q24</f>
         <v>9585.0670923367616</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>11040.37377202306</v>
       </c>
       <c r="S25" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>12633.576658094311</v>
       </c>
       <c r="T25" s="5">
-        <f t="shared" ref="T25:U25" si="26">T23+T24</f>
+        <f t="shared" ref="T25:U25" si="27">T23+T24</f>
         <v>14377.14099899573</v>
       </c>
       <c r="U25" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>16284.383777416369</v>
       </c>
     </row>
@@ -2241,59 +2241,59 @@
         <v>-4.6637403546383922</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" ref="H26:U26" si="27">H25*0.2</f>
+        <f t="shared" ref="H26:U26" si="28">H25*0.2</f>
         <v>244.52950817351461</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>407.97324297333876</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>594.74458670771071</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>728.82820493957684</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>865.62305165871976</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1023.1921826851351</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1204.4127104538918</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1412.5305567255525</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1651.2024677115405</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1917.0134184673525</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2208.0747544046121</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2526.7153316188624</v>
       </c>
       <c r="T26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2875.4281997991461</v>
       </c>
       <c r="U26" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3256.8767554832739</v>
       </c>
     </row>
@@ -2310,963 +2310,963 @@
         <v>-6.3019999999999925</v>
       </c>
       <c r="E27" s="22">
-        <f t="shared" ref="E27:G27" si="28">E25-E26</f>
+        <f t="shared" ref="E27:G27" si="29">E25-E26</f>
         <v>7.5160000000000196</v>
       </c>
       <c r="F27" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>25.261999999999944</v>
       </c>
       <c r="G27" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>639.23427495987301</v>
       </c>
       <c r="H27" s="22">
-        <f t="shared" ref="H27" si="29">H25-H26</f>
+        <f t="shared" ref="H27" si="30">H25-H26</f>
         <v>978.11803269405846</v>
       </c>
       <c r="I27" s="22">
-        <f t="shared" ref="I27" si="30">I25-I26</f>
+        <f t="shared" ref="I27" si="31">I25-I26</f>
         <v>1631.8929718933548</v>
       </c>
       <c r="J27" s="22">
-        <f t="shared" ref="J27" si="31">J25-J26</f>
+        <f t="shared" ref="J27" si="32">J25-J26</f>
         <v>2378.9783468308428</v>
       </c>
       <c r="K27" s="22">
-        <f t="shared" ref="K27" si="32">K25-K26</f>
+        <f t="shared" ref="K27" si="33">K25-K26</f>
         <v>2915.3128197583073</v>
       </c>
       <c r="L27" s="22">
-        <f t="shared" ref="L27" si="33">L25-L26</f>
+        <f t="shared" ref="L27" si="34">L25-L26</f>
         <v>3462.4922066348786</v>
       </c>
       <c r="M27" s="22">
-        <f t="shared" ref="M27" si="34">M25-M26</f>
+        <f t="shared" ref="M27" si="35">M25-M26</f>
         <v>4092.7687307405404</v>
       </c>
       <c r="N27" s="22">
-        <f t="shared" ref="N27" si="35">N25-N26</f>
+        <f t="shared" ref="N27" si="36">N25-N26</f>
         <v>4817.6508418155672</v>
       </c>
       <c r="O27" s="22">
-        <f t="shared" ref="O27" si="36">O25-O26</f>
+        <f t="shared" ref="O27" si="37">O25-O26</f>
         <v>5650.1222269022091</v>
       </c>
       <c r="P27" s="22">
-        <f t="shared" ref="P27:Q27" si="37">P25-P26</f>
+        <f t="shared" ref="P27:Q27" si="38">P25-P26</f>
         <v>6604.8098708461621</v>
       </c>
       <c r="Q27" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>7668.0536738694091</v>
       </c>
       <c r="R27" s="22">
-        <f t="shared" ref="R27:S27" si="38">R25-R26</f>
+        <f t="shared" ref="R27:S27" si="39">R25-R26</f>
         <v>8832.2990176184485</v>
       </c>
       <c r="S27" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>10106.861326475449</v>
       </c>
       <c r="T27" s="22">
-        <f t="shared" ref="T27:U27" si="39">T25-T26</f>
+        <f t="shared" ref="T27:U27" si="40">T25-T26</f>
         <v>11501.712799196584</v>
       </c>
       <c r="U27" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>13027.507021933096</v>
       </c>
       <c r="V27" s="22">
-        <f>U27*($G$3+1)</f>
+        <f t="shared" ref="V27:CG27" si="41">U27*($G$3+1)</f>
         <v>13092.64455704276</v>
       </c>
       <c r="W27" s="22">
-        <f>V27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13158.107779827973</v>
       </c>
       <c r="X27" s="22">
-        <f>W27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13223.898318727111</v>
       </c>
       <c r="Y27" s="22">
-        <f>X27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13290.017810320745</v>
       </c>
       <c r="Z27" s="22">
-        <f>Y27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13356.467899372348</v>
       </c>
       <c r="AA27" s="22">
-        <f>Z27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13423.250238869208</v>
       </c>
       <c r="AB27" s="22">
-        <f>AA27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13490.366490063552</v>
       </c>
       <c r="AC27" s="22">
-        <f>AB27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13557.818322513869</v>
       </c>
       <c r="AD27" s="22">
-        <f>AC27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13625.607414126436</v>
       </c>
       <c r="AE27" s="22">
-        <f>AD27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13693.735451197066</v>
       </c>
       <c r="AF27" s="22">
-        <f>AE27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13762.20412845305</v>
       </c>
       <c r="AG27" s="22">
-        <f>AF27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13831.015149095314</v>
       </c>
       <c r="AH27" s="22">
-        <f>AG27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13900.170224840789</v>
       </c>
       <c r="AI27" s="22">
-        <f>AH27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>13969.671075964992</v>
       </c>
       <c r="AJ27" s="22">
-        <f>AI27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14039.519431344816</v>
       </c>
       <c r="AK27" s="22">
-        <f>AJ27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14109.717028501538</v>
       </c>
       <c r="AL27" s="22">
-        <f>AK27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14180.265613644044</v>
       </c>
       <c r="AM27" s="22">
-        <f>AL27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14251.166941712263</v>
       </c>
       <c r="AN27" s="22">
-        <f>AM27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14322.422776420823</v>
       </c>
       <c r="AO27" s="22">
-        <f>AN27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14394.034890302924</v>
       </c>
       <c r="AP27" s="22">
-        <f>AO27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14466.005064754438</v>
       </c>
       <c r="AQ27" s="22">
-        <f>AP27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14538.335090078208</v>
       </c>
       <c r="AR27" s="22">
-        <f>AQ27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14611.026765528597</v>
       </c>
       <c r="AS27" s="22">
-        <f>AR27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14684.081899356239</v>
       </c>
       <c r="AT27" s="22">
-        <f>AS27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14757.502308853018</v>
       </c>
       <c r="AU27" s="22">
-        <f>AT27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14831.289820397282</v>
       </c>
       <c r="AV27" s="22">
-        <f>AU27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14905.446269499267</v>
       </c>
       <c r="AW27" s="22">
-        <f>AV27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>14979.973500846761</v>
       </c>
       <c r="AX27" s="22">
-        <f>AW27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15054.873368350994</v>
       </c>
       <c r="AY27" s="22">
-        <f>AX27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15130.147735192748</v>
       </c>
       <c r="AZ27" s="22">
-        <f>AY27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15205.79847386871</v>
       </c>
       <c r="BA27" s="22">
-        <f>AZ27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15281.827466238052</v>
       </c>
       <c r="BB27" s="22">
-        <f>BA27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15358.236603569241</v>
       </c>
       <c r="BC27" s="22">
-        <f>BB27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15435.027786587087</v>
       </c>
       <c r="BD27" s="22">
-        <f>BC27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15512.20292552002</v>
       </c>
       <c r="BE27" s="22">
-        <f>BD27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15589.763940147617</v>
       </c>
       <c r="BF27" s="22">
-        <f>BE27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15667.712759848353</v>
       </c>
       <c r="BG27" s="22">
-        <f>BF27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15746.051323647593</v>
       </c>
       <c r="BH27" s="22">
-        <f>BG27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15824.78158026583</v>
       </c>
       <c r="BI27" s="22">
-        <f>BH27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15903.905488167156</v>
       </c>
       <c r="BJ27" s="22">
-        <f>BI27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>15983.425015607991</v>
       </c>
       <c r="BK27" s="22">
-        <f>BJ27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16063.342140686029</v>
       </c>
       <c r="BL27" s="22">
-        <f>BK27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16143.658851389457</v>
       </c>
       <c r="BM27" s="22">
-        <f>BL27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16224.377145646402</v>
       </c>
       <c r="BN27" s="22">
-        <f>BM27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16305.499031374633</v>
       </c>
       <c r="BO27" s="22">
-        <f>BN27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16387.026526531503</v>
       </c>
       <c r="BP27" s="22">
-        <f>BO27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16468.961659164157</v>
       </c>
       <c r="BQ27" s="22">
-        <f>BP27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16551.306467459977</v>
       </c>
       <c r="BR27" s="22">
-        <f>BQ27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16634.062999797276</v>
       </c>
       <c r="BS27" s="22">
-        <f>BR27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16717.23331479626</v>
       </c>
       <c r="BT27" s="22">
-        <f>BS27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16800.819481370239</v>
       </c>
       <c r="BU27" s="22">
-        <f>BT27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16884.82357877709</v>
       </c>
       <c r="BV27" s="22">
-        <f>BU27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>16969.247696670973</v>
       </c>
       <c r="BW27" s="22">
-        <f>BV27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17054.093935154327</v>
       </c>
       <c r="BX27" s="22">
-        <f>BW27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17139.364404830096</v>
       </c>
       <c r="BY27" s="22">
-        <f>BX27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17225.061226854243</v>
       </c>
       <c r="BZ27" s="22">
-        <f>BY27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17311.186532988511</v>
       </c>
       <c r="CA27" s="22">
-        <f>BZ27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17397.742465653453</v>
       </c>
       <c r="CB27" s="22">
-        <f>CA27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17484.731177981717</v>
       </c>
       <c r="CC27" s="22">
-        <f>CB27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17572.154833871624</v>
       </c>
       <c r="CD27" s="22">
-        <f>CC27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17660.01560804098</v>
       </c>
       <c r="CE27" s="22">
-        <f>CD27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17748.315686081183</v>
       </c>
       <c r="CF27" s="22">
-        <f>CE27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17837.057264511586</v>
       </c>
       <c r="CG27" s="22">
-        <f>CF27*($G$3+1)</f>
+        <f t="shared" si="41"/>
         <v>17926.242550834144</v>
       </c>
       <c r="CH27" s="22">
-        <f>CG27*($G$3+1)</f>
+        <f t="shared" ref="CH27:ES27" si="42">CG27*($G$3+1)</f>
         <v>18015.873763588312</v>
       </c>
       <c r="CI27" s="22">
-        <f>CH27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>18105.953132406252</v>
       </c>
       <c r="CJ27" s="22">
-        <f>CI27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>18196.48289806828</v>
       </c>
       <c r="CK27" s="22">
-        <f>CJ27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>18287.465312558619</v>
       </c>
       <c r="CL27" s="22">
-        <f>CK27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>18378.90263912141</v>
       </c>
       <c r="CM27" s="22">
-        <f>CL27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>18470.797152317016</v>
       </c>
       <c r="CN27" s="22">
-        <f>CM27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>18563.1511380786</v>
       </c>
       <c r="CO27" s="22">
-        <f>CN27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>18655.966893768989</v>
       </c>
       <c r="CP27" s="22">
-        <f>CO27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>18749.246728237831</v>
       </c>
       <c r="CQ27" s="22">
-        <f>CP27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>18842.992961879019</v>
       </c>
       <c r="CR27" s="22">
-        <f>CQ27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>18937.207926688414</v>
       </c>
       <c r="CS27" s="22">
-        <f>CR27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>19031.893966321855</v>
       </c>
       <c r="CT27" s="22">
-        <f>CS27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>19127.053436153463</v>
       </c>
       <c r="CU27" s="22">
-        <f>CT27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>19222.688703334228</v>
       </c>
       <c r="CV27" s="22">
-        <f>CU27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>19318.802146850896</v>
       </c>
       <c r="CW27" s="22">
-        <f>CV27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>19415.39615758515</v>
       </c>
       <c r="CX27" s="22">
-        <f>CW27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>19512.473138373072</v>
       </c>
       <c r="CY27" s="22">
-        <f>CX27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>19610.035504064934</v>
       </c>
       <c r="CZ27" s="22">
-        <f>CY27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>19708.085681585257</v>
       </c>
       <c r="DA27" s="22">
-        <f>CZ27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>19806.62610999318</v>
       </c>
       <c r="DB27" s="22">
-        <f>DA27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>19905.659240543144</v>
       </c>
       <c r="DC27" s="22">
-        <f>DB27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>20005.187536745856</v>
       </c>
       <c r="DD27" s="22">
-        <f>DC27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>20105.213474429584</v>
       </c>
       <c r="DE27" s="22">
-        <f>DD27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>20205.73954180173</v>
       </c>
       <c r="DF27" s="22">
-        <f>DE27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>20306.768239510737</v>
       </c>
       <c r="DG27" s="22">
-        <f>DF27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>20408.302080708287</v>
       </c>
       <c r="DH27" s="22">
-        <f>DG27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>20510.343591111825</v>
       </c>
       <c r="DI27" s="22">
-        <f>DH27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>20612.895309067382</v>
       </c>
       <c r="DJ27" s="22">
-        <f>DI27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>20715.959785612718</v>
       </c>
       <c r="DK27" s="22">
-        <f>DJ27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>20819.53958454078</v>
       </c>
       <c r="DL27" s="22">
-        <f>DK27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>20923.637282463482</v>
       </c>
       <c r="DM27" s="22">
-        <f>DL27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>21028.255468875795</v>
       </c>
       <c r="DN27" s="22">
-        <f>DM27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>21133.396746220173</v>
       </c>
       <c r="DO27" s="22">
-        <f>DN27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>21239.063729951271</v>
       </c>
       <c r="DP27" s="22">
-        <f>DO27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>21345.259048601027</v>
       </c>
       <c r="DQ27" s="22">
-        <f>DP27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>21451.98534384403</v>
       </c>
       <c r="DR27" s="22">
-        <f>DQ27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>21559.245270563246</v>
       </c>
       <c r="DS27" s="22">
-        <f>DR27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>21667.041496916059</v>
       </c>
       <c r="DT27" s="22">
-        <f>DS27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>21775.376704400638</v>
       </c>
       <c r="DU27" s="22">
-        <f>DT27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>21884.253587922638</v>
       </c>
       <c r="DV27" s="22">
-        <f>DU27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>21993.674855862249</v>
       </c>
       <c r="DW27" s="22">
-        <f>DV27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>22103.643230141559</v>
       </c>
       <c r="DX27" s="22">
-        <f>DW27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>22214.161446292263</v>
       </c>
       <c r="DY27" s="22">
-        <f>DX27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>22325.232253523722</v>
       </c>
       <c r="DZ27" s="22">
-        <f>DY27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>22436.858414791339</v>
       </c>
       <c r="EA27" s="22">
-        <f>DZ27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>22549.042706865293</v>
       </c>
       <c r="EB27" s="22">
-        <f>EA27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>22661.787920399616</v>
       </c>
       <c r="EC27" s="22">
-        <f>EB27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>22775.096860001613</v>
       </c>
       <c r="ED27" s="22">
-        <f>EC27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>22888.972344301619</v>
       </c>
       <c r="EE27" s="22">
-        <f>ED27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>23003.417206023125</v>
       </c>
       <c r="EF27" s="22">
-        <f>EE27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>23118.434292053236</v>
       </c>
       <c r="EG27" s="22">
-        <f>EF27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>23234.026463513499</v>
       </c>
       <c r="EH27" s="22">
-        <f>EG27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>23350.196595831065</v>
       </c>
       <c r="EI27" s="22">
-        <f>EH27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>23466.947578810217</v>
       </c>
       <c r="EJ27" s="22">
-        <f>EI27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>23584.282316704266</v>
       </c>
       <c r="EK27" s="22">
-        <f>EJ27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>23702.203728287786</v>
       </c>
       <c r="EL27" s="22">
-        <f>EK27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>23820.714746929221</v>
       </c>
       <c r="EM27" s="22">
-        <f>EL27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>23939.818320663864</v>
       </c>
       <c r="EN27" s="22">
-        <f>EM27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>24059.517412267181</v>
       </c>
       <c r="EO27" s="22">
-        <f>EN27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>24179.814999328515</v>
       </c>
       <c r="EP27" s="22">
-        <f>EO27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>24300.714074325155</v>
       </c>
       <c r="EQ27" s="22">
-        <f>EP27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>24422.217644696779</v>
       </c>
       <c r="ER27" s="22">
-        <f>EQ27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>24544.328732920261</v>
       </c>
       <c r="ES27" s="22">
-        <f>ER27*($G$3+1)</f>
+        <f t="shared" si="42"/>
         <v>24667.050376584859</v>
       </c>
       <c r="ET27" s="22">
-        <f>ES27*($G$3+1)</f>
+        <f t="shared" ref="ET27:HE27" si="43">ES27*($G$3+1)</f>
         <v>24790.385628467782</v>
       </c>
       <c r="EU27" s="22">
-        <f>ET27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>24914.337556610117</v>
       </c>
       <c r="EV27" s="22">
-        <f>EU27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>25038.909244393166</v>
       </c>
       <c r="EW27" s="22">
-        <f>EV27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>25164.103790615129</v>
       </c>
       <c r="EX27" s="22">
-        <f>EW27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>25289.924309568203</v>
       </c>
       <c r="EY27" s="22">
-        <f>EX27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>25416.373931116043</v>
       </c>
       <c r="EZ27" s="22">
-        <f>EY27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>25543.455800771619</v>
       </c>
       <c r="FA27" s="22">
-        <f>EZ27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>25671.173079775475</v>
       </c>
       <c r="FB27" s="22">
-        <f>FA27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>25799.528945174348</v>
       </c>
       <c r="FC27" s="22">
-        <f>FB27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>25928.526589900219</v>
       </c>
       <c r="FD27" s="22">
-        <f>FC27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>26058.169222849716</v>
       </c>
       <c r="FE27" s="22">
-        <f>FD27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>26188.460068963963</v>
       </c>
       <c r="FF27" s="22">
-        <f>FE27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>26319.40236930878</v>
       </c>
       <c r="FG27" s="22">
-        <f>FF27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>26450.999381155321</v>
       </c>
       <c r="FH27" s="22">
-        <f>FG27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>26583.254378061094</v>
       </c>
       <c r="FI27" s="22">
-        <f>FH27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>26716.170649951397</v>
       </c>
       <c r="FJ27" s="22">
-        <f>FI27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>26849.751503201151</v>
       </c>
       <c r="FK27" s="22">
-        <f>FJ27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>26984.000260717152</v>
       </c>
       <c r="FL27" s="22">
-        <f>FK27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>27118.920262020736</v>
       </c>
       <c r="FM27" s="22">
-        <f>FL27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>27254.514863330838</v>
       </c>
       <c r="FN27" s="22">
-        <f>FM27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>27390.78743764749</v>
       </c>
       <c r="FO27" s="22">
-        <f>FN27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>27527.741374835725</v>
       </c>
       <c r="FP27" s="22">
-        <f>FO27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>27665.3800817099</v>
       </c>
       <c r="FQ27" s="22">
-        <f>FP27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>27803.706982118445</v>
       </c>
       <c r="FR27" s="22">
-        <f>FQ27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>27942.725517029034</v>
       </c>
       <c r="FS27" s="22">
-        <f>FR27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>28082.439144614174</v>
       </c>
       <c r="FT27" s="22">
-        <f>FS27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>28222.851340337242</v>
       </c>
       <c r="FU27" s="22">
-        <f>FT27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>28363.965597038925</v>
       </c>
       <c r="FV27" s="22">
-        <f>FU27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>28505.785425024118</v>
       </c>
       <c r="FW27" s="22">
-        <f>FV27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>28648.314352149235</v>
       </c>
       <c r="FX27" s="22">
-        <f>FW27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>28791.555923909978</v>
       </c>
       <c r="FY27" s="22">
-        <f>FX27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>28935.513703529527</v>
       </c>
       <c r="FZ27" s="22">
-        <f>FY27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>29080.19127204717</v>
       </c>
       <c r="GA27" s="22">
-        <f>FZ27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>29225.592228407404</v>
       </c>
       <c r="GB27" s="22">
-        <f>GA27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>29371.720189549436</v>
       </c>
       <c r="GC27" s="22">
-        <f>GB27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>29518.57879049718</v>
       </c>
       <c r="GD27" s="22">
-        <f>GC27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>29666.171684449662</v>
       </c>
       <c r="GE27" s="22">
-        <f>GD27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>29814.502542871909</v>
       </c>
       <c r="GF27" s="22">
-        <f>GE27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>29963.575055586265</v>
       </c>
       <c r="GG27" s="22">
-        <f>GF27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>30113.392930864193</v>
       </c>
       <c r="GH27" s="22">
-        <f>GG27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>30263.95989551851</v>
       </c>
       <c r="GI27" s="22">
-        <f>GH27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>30415.279694996101</v>
       </c>
       <c r="GJ27" s="22">
-        <f>GI27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>30567.356093471077</v>
       </c>
       <c r="GK27" s="22">
-        <f>GJ27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>30720.192873938428</v>
       </c>
       <c r="GL27" s="22">
-        <f>GK27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>30873.793838308116</v>
       </c>
       <c r="GM27" s="22">
-        <f>GL27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>31028.162807499655</v>
       </c>
       <c r="GN27" s="22">
-        <f>GM27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>31183.30362153715</v>
       </c>
       <c r="GO27" s="22">
-        <f>GN27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>31339.220139644833</v>
       </c>
       <c r="GP27" s="22">
-        <f>GO27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>31495.916240343053</v>
       </c>
       <c r="GQ27" s="22">
-        <f>GP27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>31653.395821544764</v>
       </c>
       <c r="GR27" s="22">
-        <f>GQ27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>31811.662800652484</v>
       </c>
       <c r="GS27" s="22">
-        <f>GR27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>31970.721114655742</v>
       </c>
       <c r="GT27" s="22">
-        <f>GS27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>32130.574720229019</v>
       </c>
       <c r="GU27" s="22">
-        <f>GT27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>32291.227593830161</v>
       </c>
       <c r="GV27" s="22">
-        <f>GU27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>32452.683731799309</v>
       </c>
       <c r="GW27" s="22">
-        <f>GV27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>32614.947150458302</v>
       </c>
       <c r="GX27" s="22">
-        <f>GW27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>32778.02188621059</v>
       </c>
       <c r="GY27" s="22">
-        <f>GX27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>32941.91199564164</v>
       </c>
       <c r="GZ27" s="22">
-        <f>GY27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>33106.621555619844</v>
       </c>
       <c r="HA27" s="22">
-        <f>GZ27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>33272.154663397938</v>
       </c>
       <c r="HB27" s="22">
-        <f>HA27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>33438.515436714923</v>
       </c>
       <c r="HC27" s="22">
-        <f>HB27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>33605.708013898497</v>
       </c>
       <c r="HD27" s="22">
-        <f>HC27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>33773.736553967989</v>
       </c>
       <c r="HE27" s="22">
-        <f>HD27*($G$3+1)</f>
+        <f t="shared" si="43"/>
         <v>33942.605236737822</v>
       </c>
       <c r="HF27" s="22">
-        <f>HE27*($G$3+1)</f>
+        <f t="shared" ref="HF27:IJ27" si="44">HE27*($G$3+1)</f>
         <v>34112.318262921508</v>
       </c>
       <c r="HG27" s="22">
-        <f>HF27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>34282.879854236111</v>
       </c>
       <c r="HH27" s="22">
-        <f>HG27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>34454.294253507287</v>
       </c>
       <c r="HI27" s="22">
-        <f>HH27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>34626.565724774817</v>
       </c>
       <c r="HJ27" s="22">
-        <f>HI27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>34799.698553398688</v>
       </c>
       <c r="HK27" s="22">
-        <f>HJ27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>34973.697046165675</v>
       </c>
       <c r="HL27" s="22">
-        <f>HK27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>35148.565531396496</v>
       </c>
       <c r="HM27" s="22">
-        <f>HL27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>35324.308359053473</v>
       </c>
       <c r="HN27" s="22">
-        <f>HM27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>35500.929900848736</v>
       </c>
       <c r="HO27" s="22">
-        <f>HN27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>35678.434550352977</v>
       </c>
       <c r="HP27" s="22">
-        <f>HO27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>35856.826723104736</v>
       </c>
       <c r="HQ27" s="22">
-        <f>HP27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>36036.110856720254</v>
       </c>
       <c r="HR27" s="22">
-        <f>HQ27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>36216.291411003855</v>
       </c>
       <c r="HS27" s="22">
-        <f>HR27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>36397.372868058868</v>
       </c>
       <c r="HT27" s="22">
-        <f>HS27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>36579.359732399156</v>
       </c>
       <c r="HU27" s="22">
-        <f>HT27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>36762.256531061146</v>
       </c>
       <c r="HV27" s="22">
-        <f>HU27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>36946.06781371645</v>
       </c>
       <c r="HW27" s="22">
-        <f>HV27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>37130.798152785028</v>
       </c>
       <c r="HX27" s="22">
-        <f>HW27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>37316.452143548951</v>
       </c>
       <c r="HY27" s="22">
-        <f>HX27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>37503.034404266691</v>
       </c>
       <c r="HZ27" s="22">
-        <f>HY27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>37690.549576288024</v>
       </c>
       <c r="IA27" s="22">
-        <f>HZ27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>37879.002324169458</v>
       </c>
       <c r="IB27" s="22">
-        <f>IA27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>38068.397335790301</v>
       </c>
       <c r="IC27" s="22">
-        <f>IB27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>38258.73932246925</v>
       </c>
       <c r="ID27" s="22">
-        <f>IC27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>38450.033019081595</v>
       </c>
       <c r="IE27" s="22">
-        <f>ID27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>38642.283184177002</v>
       </c>
       <c r="IF27" s="22">
-        <f>IE27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>38835.494600097882</v>
       </c>
       <c r="IG27" s="22">
-        <f>IF27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>39029.672073098365</v>
       </c>
       <c r="IH27" s="22">
-        <f>IG27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>39224.82043346385</v>
       </c>
       <c r="II27" s="22">
-        <f>IH27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>39420.944535631163</v>
       </c>
       <c r="IJ27" s="22">
-        <f>II27*($G$3+1)</f>
+        <f t="shared" si="44"/>
         <v>39618.049258309315</v>
       </c>
     </row>
@@ -3279,75 +3279,75 @@
         <v>0</v>
       </c>
       <c r="D28" s="108">
-        <f t="shared" ref="D28:G28" si="40">IFERROR(D27/D29,0)</f>
+        <f t="shared" ref="D28:G28" si="45">IFERROR(D27/D29,0)</f>
         <v>0</v>
       </c>
       <c r="E28" s="108">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>6.4385320133303475E-2</v>
       </c>
       <c r="F28" s="108">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>8.6280494568046331E-2</v>
       </c>
       <c r="G28" s="108">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>2.1832574375894418</v>
       </c>
       <c r="H28" s="18">
-        <f t="shared" ref="H28:P28" si="41">H27/H29</f>
+        <f t="shared" ref="H28:P28" si="46">H27/H29</f>
         <v>3.3406898743871456</v>
       </c>
       <c r="I28" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>5.5736098763786677</v>
       </c>
       <c r="J28" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>8.1252247775805095</v>
       </c>
       <c r="K28" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>9.9570355438727347</v>
       </c>
       <c r="L28" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>11.825886312503526</v>
       </c>
       <c r="M28" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>13.978549213875777</v>
       </c>
       <c r="N28" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>16.454330507798783</v>
       </c>
       <c r="O28" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>19.297575018091798</v>
       </c>
       <c r="P28" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>22.558240130810006</v>
       </c>
       <c r="Q28" s="18">
-        <f t="shared" ref="Q28:S28" si="42">Q27/Q29</f>
+        <f t="shared" ref="Q28:S28" si="47">Q27/Q29</f>
         <v>26.189670784410527</v>
       </c>
       <c r="R28" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>30.16606473806473</v>
       </c>
       <c r="S28" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>34.519238135498554</v>
       </c>
       <c r="T28" s="18">
-        <f t="shared" ref="T28:U28" si="43">T27/T29</f>
+        <f t="shared" ref="T28:U28" si="48">T27/T29</f>
         <v>39.283250284787911</v>
       </c>
       <c r="U28" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>44.494487722313615</v>
       </c>
     </row>
@@ -3370,59 +3370,59 @@
         <v>292.78923500000002</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ref="H29" si="44">G29</f>
+        <f t="shared" ref="H29" si="49">G29</f>
         <v>292.78923500000002</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" ref="I29" si="45">H29</f>
+        <f t="shared" ref="I29" si="50">H29</f>
         <v>292.78923500000002</v>
       </c>
       <c r="J29" s="5">
-        <f t="shared" ref="J29" si="46">I29</f>
+        <f t="shared" ref="J29" si="51">I29</f>
         <v>292.78923500000002</v>
       </c>
       <c r="K29" s="5">
-        <f t="shared" ref="K29" si="47">J29</f>
+        <f t="shared" ref="K29" si="52">J29</f>
         <v>292.78923500000002</v>
       </c>
       <c r="L29" s="5">
-        <f t="shared" ref="L29" si="48">K29</f>
+        <f t="shared" ref="L29" si="53">K29</f>
         <v>292.78923500000002</v>
       </c>
       <c r="M29" s="5">
-        <f t="shared" ref="M29" si="49">L29</f>
+        <f t="shared" ref="M29" si="54">L29</f>
         <v>292.78923500000002</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" ref="N29" si="50">M29</f>
+        <f t="shared" ref="N29" si="55">M29</f>
         <v>292.78923500000002</v>
       </c>
       <c r="O29" s="5">
-        <f t="shared" ref="O29" si="51">N29</f>
+        <f t="shared" ref="O29" si="56">N29</f>
         <v>292.78923500000002</v>
       </c>
       <c r="P29" s="5">
-        <f t="shared" ref="P29:U29" si="52">O29</f>
+        <f t="shared" ref="P29:U29" si="57">O29</f>
         <v>292.78923500000002</v>
       </c>
       <c r="Q29" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>292.78923500000002</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>292.78923500000002</v>
       </c>
       <c r="S29" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>292.78923500000002</v>
       </c>
       <c r="T29" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>292.78923500000002</v>
       </c>
       <c r="U29" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>292.78923500000002</v>
       </c>
     </row>
@@ -3452,15 +3452,15 @@
         <v>15</v>
       </c>
       <c r="C31" s="21">
-        <f t="shared" ref="C31:P31" si="53">IFERROR(C18/C16,0)</f>
+        <f t="shared" ref="C31:P31" si="58">IFERROR(C18/C16,0)</f>
         <v>0.79492576088922506</v>
       </c>
       <c r="D31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.79680217589352909</v>
       </c>
       <c r="E31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.81543763255747825</v>
       </c>
       <c r="F31" s="21">
@@ -3472,59 +3472,59 @@
         <v>0.68031303370563301</v>
       </c>
       <c r="H31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="I31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="J31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="K31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="L31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="M31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="N31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="O31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="P31" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="Q31" s="21">
-        <f t="shared" ref="Q31:S31" si="54">IFERROR(Q18/Q16,0)</f>
+        <f t="shared" ref="Q31:S31" si="59">IFERROR(Q18/Q16,0)</f>
         <v>0.68031303370563301</v>
       </c>
       <c r="R31" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="S31" s="21">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.68031303370563301</v>
       </c>
       <c r="T31" s="21">
-        <f t="shared" ref="T31:U31" si="55">IFERROR(T18/T16,0)</f>
+        <f t="shared" ref="T31:U31" si="60">IFERROR(T18/T16,0)</f>
         <v>0.68031303370563301</v>
       </c>
       <c r="U31" s="21">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>0.68031303370563301</v>
       </c>
     </row>
@@ -3533,19 +3533,19 @@
         <v>16</v>
       </c>
       <c r="C32" s="20">
-        <f t="shared" ref="C32:P32" si="56">IFERROR(C23/C16,0)</f>
+        <f t="shared" ref="C32:P32" si="61">IFERROR(C23/C16,0)</f>
         <v>-1.077001496292157E-2</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>-4.1603401153962903E-2</v>
       </c>
       <c r="E32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>1.9714568388312915E-2</v>
       </c>
       <c r="F32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>1.6480957443733069E-2</v>
       </c>
       <c r="G32" s="20">
@@ -3553,59 +3553,59 @@
         <v>0.24057136068563942</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.28806433080832278</v>
       </c>
       <c r="I32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.31418720466949446</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.31697527279030357</v>
       </c>
       <c r="K32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.28966129363838677</v>
       </c>
       <c r="L32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.29672044914437523</v>
       </c>
       <c r="M32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.30280136270248642</v>
       </c>
       <c r="N32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.3079732552499852</v>
       </c>
       <c r="O32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.31229863966089877</v>
       </c>
       <c r="P32" s="20">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>0.31583387410580632</v>
       </c>
       <c r="Q32" s="20">
-        <f t="shared" ref="Q32:S32" si="57">IFERROR(Q23/Q16,0)</f>
+        <f t="shared" ref="Q32:S32" si="62">IFERROR(Q23/Q16,0)</f>
         <v>0.3317106328846271</v>
       </c>
       <c r="R32" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.34564593147258582</v>
       </c>
       <c r="S32" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.35783462819157053</v>
       </c>
       <c r="T32" s="20">
-        <f t="shared" ref="T32:U32" si="58">IFERROR(T23/T16,0)</f>
+        <f t="shared" ref="T32:U32" si="63">IFERROR(T23/T16,0)</f>
         <v>0.36844547165918301</v>
       </c>
       <c r="U32" s="20">
-        <f t="shared" si="58"/>
+        <f t="shared" si="63"/>
         <v>0.37762451680988129</v>
       </c>
     </row>
@@ -3614,19 +3614,19 @@
         <v>17</v>
       </c>
       <c r="C33" s="20">
-        <f t="shared" ref="C33:P33" si="59">IFERROR(C26/C25,0)</f>
+        <f t="shared" ref="C33:P33" si="64">IFERROR(C26/C25,0)</f>
         <v>0</v>
       </c>
       <c r="D33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="E33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="F33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>-8.5977130083398023E-2</v>
       </c>
       <c r="G33" s="20">
@@ -3634,59 +3634,59 @@
         <v>-7.3494436005285034E-3</v>
       </c>
       <c r="H33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.2</v>
       </c>
       <c r="I33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.2</v>
       </c>
       <c r="J33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="K33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.2</v>
       </c>
       <c r="L33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.2</v>
       </c>
       <c r="M33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.2</v>
       </c>
       <c r="N33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.19999999999999998</v>
       </c>
       <c r="O33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.2</v>
       </c>
       <c r="P33" s="20">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>0.2</v>
       </c>
       <c r="Q33" s="20">
-        <f t="shared" ref="Q33:S33" si="60">IFERROR(Q26/Q25,0)</f>
+        <f t="shared" ref="Q33:S33" si="65">IFERROR(Q26/Q25,0)</f>
         <v>0.2</v>
       </c>
       <c r="R33" s="20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>0.2</v>
       </c>
       <c r="S33" s="20">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>0.2</v>
       </c>
       <c r="T33" s="20">
-        <f t="shared" ref="T33:U33" si="61">IFERROR(T26/T25,0)</f>
+        <f t="shared" ref="T33:U33" si="66">IFERROR(T26/T25,0)</f>
         <v>0.2</v>
       </c>
       <c r="U33" s="20">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>0.2</v>
       </c>
     </row>
@@ -3721,7 +3721,7 @@
         <v>1.4907180558067648</v>
       </c>
       <c r="E35" s="19">
-        <f t="shared" ref="E35:U35" si="62">E16/D16-1</f>
+        <f t="shared" ref="E35:U35" si="67">E16/D16-1</f>
         <v>1.1819472134567395</v>
       </c>
       <c r="F35" s="19">
@@ -3737,55 +3737,55 @@
         <v>0.60000000000000009</v>
       </c>
       <c r="I35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.53000000000000025</v>
       </c>
       <c r="J35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.44000000000000017</v>
       </c>
       <c r="K35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.33000000000000052</v>
       </c>
       <c r="L35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="M35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="N35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="O35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="P35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="Q35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="T35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U35" s="19">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -3795,75 +3795,75 @@
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20">
-        <f t="shared" ref="D36:U36" si="63">D19/C19-1</f>
+        <f t="shared" ref="D36:U36" si="68">D19/C19-1</f>
         <v>0.77777777777777768</v>
       </c>
       <c r="E36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>1.0625</v>
       </c>
       <c r="F36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>1.0606060606060606</v>
       </c>
       <c r="G36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>1.2647058823529411</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.5</v>
       </c>
       <c r="I36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.5</v>
       </c>
       <c r="J36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.5</v>
       </c>
       <c r="K36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.5</v>
       </c>
       <c r="L36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="M36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="N36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="O36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="P36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="Q36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="R36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="S36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="T36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="U36" s="20">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.14999999999999991</v>
       </c>
     </row>
@@ -3873,75 +3873,75 @@
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20">
-        <f t="shared" ref="D37:U37" si="64">D20/C20-1</f>
+        <f t="shared" ref="D37:U37" si="69">D20/C20-1</f>
         <v>1.625</v>
       </c>
       <c r="E37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>1.2023809523809526</v>
       </c>
       <c r="F37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.84324324324324329</v>
       </c>
       <c r="G37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.97360703812316718</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="I37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="J37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="K37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="L37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="M37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="N37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="O37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="P37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="Q37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="R37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="S37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="T37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U37" s="20">
-        <f t="shared" si="64"/>
+        <f t="shared" si="69"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -3951,75 +3951,75 @@
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20">
-        <f t="shared" ref="D38:U38" si="65">D21/C21-1</f>
+        <f t="shared" ref="D38:U38" si="70">D21/C21-1</f>
         <v>2.375</v>
       </c>
       <c r="E38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="F38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0.95555555555555549</v>
       </c>
       <c r="G38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>2.5340909090909092</v>
       </c>
       <c r="H38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="I38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="J38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="K38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="L38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="M38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="O38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="R38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-4.9999999999999933E-2</v>
       </c>
       <c r="S38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="T38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="U38" s="20">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>-4.9999999999999933E-2</v>
       </c>
     </row>
@@ -4033,71 +4033,71 @@
         <v>1.5918367346938775</v>
       </c>
       <c r="E39" s="20">
-        <f t="shared" ref="E39:U39" si="66">E22/D22-1</f>
+        <f t="shared" ref="E39:U39" si="71">E22/D22-1</f>
         <v>1.0708661417322833</v>
       </c>
       <c r="F39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.88973384030418257</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>1.2897384305835011</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.42719683655536023</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.4281054705538283</v>
       </c>
       <c r="J39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.42903432160321953</v>
       </c>
       <c r="K39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.42998298052074801</v>
       </c>
       <c r="L39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.12921926872643819</v>
       </c>
       <c r="M39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.13176958869049482</v>
       </c>
       <c r="N39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.13424505283818333</v>
       </c>
       <c r="O39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.13664071807427614</v>
       </c>
       <c r="P39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>0.13895282446167156</v>
       </c>
       <c r="Q39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>5.2083859401240717E-2</v>
       </c>
       <c r="R39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>5.602775996191367E-2</v>
       </c>
       <c r="S39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>5.9937602765787412E-2</v>
       </c>
       <c r="T39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>6.3805552201960714E-2</v>
       </c>
       <c r="U39" s="20">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>6.7624238957354921E-2</v>
       </c>
     </row>
@@ -4144,59 +4144,59 @@
         <v>1494.2342749598729</v>
       </c>
       <c r="H41" s="17">
-        <f t="shared" ref="G41:U41" si="67">G41+H27</f>
+        <f t="shared" ref="H41:U41" si="72">G41+H27</f>
         <v>2472.3523076539313</v>
       </c>
       <c r="I41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>4104.2452795472864</v>
       </c>
       <c r="J41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>6483.2236263781288</v>
       </c>
       <c r="K41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>9398.536446136437</v>
       </c>
       <c r="L41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>12861.028652771316</v>
       </c>
       <c r="M41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>16953.797383511857</v>
       </c>
       <c r="N41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>21771.448225327425</v>
       </c>
       <c r="O41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>27421.570452229636</v>
       </c>
       <c r="P41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>34026.380323075799</v>
       </c>
       <c r="Q41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>41694.433996945205</v>
       </c>
       <c r="R41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>50526.733014563652</v>
       </c>
       <c r="S41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>60633.594341039105</v>
       </c>
       <c r="T41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>72135.307140235687</v>
       </c>
       <c r="U41" s="17">
-        <f t="shared" si="67"/>
+        <f t="shared" si="72"/>
         <v>85162.814162168783</v>
       </c>
     </row>
@@ -4416,15 +4416,15 @@
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="14">
-        <f t="shared" ref="D57:K60" si="68">D11/C11-1</f>
+        <f t="shared" ref="D57:G60" si="73">D11/C11-1</f>
         <v>1.4907180558067648</v>
       </c>
       <c r="E57" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>1.1819472134567395</v>
       </c>
       <c r="F57" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>0.88389099501689739</v>
       </c>
       <c r="G57" s="14"/>
@@ -4442,23 +4442,23 @@
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>4.8</v>
       </c>
       <c r="H59" s="14">
-        <f t="shared" ref="H59:H60" si="69">H13/G13-1</f>
+        <f t="shared" ref="H59:H60" si="74">H13/G13-1</f>
         <v>1</v>
       </c>
       <c r="I59" s="14">
-        <f t="shared" ref="I59:I60" si="70">I13/H13-1</f>
+        <f t="shared" ref="I59:I60" si="75">I13/H13-1</f>
         <v>0.8</v>
       </c>
       <c r="J59" s="14">
-        <f t="shared" ref="J59:J60" si="71">J13/I13-1</f>
+        <f t="shared" ref="J59:J60" si="76">J13/I13-1</f>
         <v>0.60000000000000031</v>
       </c>
       <c r="K59" s="14">
-        <f t="shared" ref="K59:K60" si="72">K13/J13-1</f>
+        <f t="shared" ref="K59:K60" si="77">K13/J13-1</f>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -4467,23 +4467,23 @@
         <v>77</v>
       </c>
       <c r="G60" s="14">
-        <f t="shared" si="68"/>
+        <f t="shared" si="73"/>
         <v>-0.28341605803196768</v>
       </c>
       <c r="H60" s="14">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>-0.19999999999999996</v>
       </c>
       <c r="I60" s="14">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>-0.14999999999999991</v>
       </c>
       <c r="J60" s="14">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>-9.9999999999999867E-2</v>
       </c>
       <c r="K60" s="14">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>-4.9999999999999822E-2</v>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4761,31 +4761,31 @@
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
       <c r="K7" s="39">
-        <f>SUM(K4)/K6</f>
+        <f t="shared" ref="K7:Q7" si="0">SUM(K4)/K6</f>
         <v>2085.264957264957</v>
       </c>
       <c r="L7" s="104">
-        <f>SUM(L4)/L6</f>
+        <f t="shared" si="0"/>
         <v>2199.4871794871797</v>
       </c>
       <c r="M7" s="104">
-        <f>SUM(M4)/M6</f>
+        <f t="shared" si="0"/>
         <v>2248.2186234817814</v>
       </c>
       <c r="N7" s="104">
-        <f>SUM(N4)/N6</f>
+        <f t="shared" si="0"/>
         <v>2298.5470085470088</v>
       </c>
       <c r="O7" s="39">
-        <f>SUM(O4)/O6</f>
+        <f t="shared" si="0"/>
         <v>1236.4996232102485</v>
       </c>
       <c r="P7" s="104">
-        <f>SUM(P4)/P6</f>
+        <f t="shared" si="0"/>
         <v>1792.3284710967046</v>
       </c>
       <c r="Q7" s="104">
-        <f>SUM(Q4)/Q6</f>
+        <f t="shared" si="0"/>
         <v>1792.0129121512568</v>
       </c>
       <c r="R7" s="27">
@@ -4821,67 +4821,67 @@
         <v>0</v>
       </c>
       <c r="C9" s="69">
-        <f>SUM(C4)</f>
+        <f t="shared" ref="C9:J9" si="1">SUM(C4)</f>
         <v>26.753</v>
       </c>
       <c r="D9" s="70">
-        <f>SUM(D4)</f>
+        <f t="shared" si="1"/>
         <v>32.920999999999999</v>
       </c>
       <c r="E9" s="70">
-        <f>SUM(E4)</f>
+        <f t="shared" si="1"/>
         <v>40.89</v>
       </c>
       <c r="F9" s="70">
-        <f>SUM(F4)</f>
+        <f t="shared" si="1"/>
         <v>50.914000000000001</v>
       </c>
       <c r="G9" s="69">
-        <f>SUM(G4)</f>
+        <f t="shared" si="1"/>
         <v>60.07</v>
       </c>
       <c r="H9" s="70">
-        <f>SUM(H4)</f>
+        <f t="shared" si="1"/>
         <v>74.525999999999996</v>
       </c>
       <c r="I9" s="70">
-        <f>SUM(I4)</f>
+        <f t="shared" si="1"/>
         <v>90.120999999999995</v>
       </c>
       <c r="J9" s="70">
-        <f>SUM(J4)</f>
+        <f t="shared" si="1"/>
         <v>105.8</v>
       </c>
       <c r="K9" s="69">
-        <f>K6*K7</f>
+        <f t="shared" ref="K9:R9" si="2">K6*K7</f>
         <v>121.988</v>
       </c>
       <c r="L9" s="70">
-        <f>L6*L7</f>
+        <f t="shared" si="2"/>
         <v>145.82599999999999</v>
       </c>
       <c r="M9" s="70">
-        <f>M6*M7</f>
+        <f t="shared" si="2"/>
         <v>166.59299999999999</v>
       </c>
       <c r="N9" s="70">
-        <f>N6*N7</f>
+        <f t="shared" si="2"/>
         <v>188.25100000000003</v>
       </c>
       <c r="O9" s="69">
-        <f>O6*O7</f>
+        <f t="shared" si="2"/>
         <v>328.16699999999997</v>
       </c>
       <c r="P9" s="70">
-        <f>P6*P7</f>
+        <f t="shared" si="2"/>
         <v>663.52</v>
       </c>
       <c r="Q9" s="70">
-        <f>Q6*Q7</f>
+        <f t="shared" si="2"/>
         <v>777.19600000000003</v>
       </c>
       <c r="R9" s="70">
-        <f>R6*R7</f>
+        <f t="shared" si="2"/>
         <v>818.89185000000009</v>
       </c>
     </row>
@@ -4946,63 +4946,63 @@
         <v>2</v>
       </c>
       <c r="C11" s="114">
-        <f t="shared" ref="C11" si="0">C9-C10</f>
+        <f t="shared" ref="C11" si="3">C9-C10</f>
         <v>21.254000000000001</v>
       </c>
       <c r="D11" s="115">
-        <f t="shared" ref="D11" si="1">D9-D10</f>
+        <f t="shared" ref="D11" si="4">D9-D10</f>
         <v>26.143999999999998</v>
       </c>
       <c r="E11" s="115">
-        <f t="shared" ref="E11:M11" si="2">E9-E10</f>
+        <f t="shared" ref="E11:M11" si="5">E9-E10</f>
         <v>33.134999999999998</v>
       </c>
       <c r="F11" s="115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>40.164999999999999</v>
       </c>
       <c r="G11" s="114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>48.41</v>
       </c>
       <c r="H11" s="115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>61.552999999999997</v>
       </c>
       <c r="I11" s="115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>73.277999999999992</v>
       </c>
       <c r="J11" s="115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>86.275000000000006</v>
       </c>
       <c r="K11" s="114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>97.884</v>
       </c>
       <c r="L11" s="115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>117.92599999999999</v>
       </c>
       <c r="M11" s="115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>135.74799999999999</v>
       </c>
       <c r="N11" s="115">
-        <f t="shared" ref="N11:Q11" si="3">N9-N10</f>
+        <f t="shared" ref="N11:Q11" si="6">N9-N10</f>
         <v>155.70400000000004</v>
       </c>
       <c r="O11" s="114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>224.45999999999998</v>
       </c>
       <c r="P11" s="115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>471.24900000000002</v>
       </c>
       <c r="Q11" s="115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>518.46900000000005</v>
       </c>
       <c r="R11" s="88">
@@ -5181,67 +5181,67 @@
         <v>6</v>
       </c>
       <c r="C15" s="39">
-        <f t="shared" ref="C15" si="4">SUM(C12:C14)</f>
+        <f t="shared" ref="C15" si="7">SUM(C12:C14)</f>
         <v>20</v>
       </c>
       <c r="D15" s="38">
-        <f t="shared" ref="D15" si="5">SUM(D12:D14)</f>
+        <f t="shared" ref="D15" si="8">SUM(D12:D14)</f>
         <v>34</v>
       </c>
       <c r="E15" s="38">
-        <f t="shared" ref="E15:I15" si="6">SUM(E12:E14)</f>
+        <f t="shared" ref="E15:I15" si="9">SUM(E12:E14)</f>
         <v>33</v>
       </c>
       <c r="F15" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="G15" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="H15" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="I15" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="J15" s="38">
-        <f t="shared" ref="J15:K15" si="7">SUM(J12:J14)</f>
+        <f t="shared" ref="J15:K15" si="10">SUM(J12:J14)</f>
         <v>81</v>
       </c>
       <c r="K15" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="L15" s="38">
-        <f t="shared" ref="L15:N15" si="8">SUM(L12:L14)</f>
+        <f t="shared" ref="L15:N15" si="11">SUM(L12:L14)</f>
         <v>116</v>
       </c>
       <c r="M15" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>138</v>
       </c>
       <c r="N15" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>146</v>
       </c>
       <c r="O15" s="39">
-        <f t="shared" ref="O15:P15" si="9">SUM(O12:O14)</f>
+        <f t="shared" ref="O15:P15" si="12">SUM(O12:O14)</f>
         <v>201</v>
       </c>
       <c r="P15" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>283</v>
       </c>
       <c r="Q15" s="38">
-        <f t="shared" ref="Q15:R15" si="10">SUM(Q12:Q14)</f>
+        <f t="shared" ref="Q15:R15" si="13">SUM(Q12:Q14)</f>
         <v>326</v>
       </c>
       <c r="R15" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>328</v>
       </c>
     </row>
@@ -5251,15 +5251,15 @@
         <v>7</v>
       </c>
       <c r="C16" s="39">
-        <f t="shared" ref="C16:E16" si="11">C11-C15</f>
+        <f t="shared" ref="C16:E16" si="14">C11-C15</f>
         <v>1.2540000000000013</v>
       </c>
       <c r="D16" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-7.8560000000000016</v>
       </c>
       <c r="E16" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.13499999999999801</v>
       </c>
       <c r="F16" s="38">
@@ -5267,51 +5267,51 @@
         <v>0.16499999999999915</v>
       </c>
       <c r="G16" s="39">
-        <f t="shared" ref="G16" si="12">G11-G15</f>
+        <f t="shared" ref="G16" si="15">G11-G15</f>
         <v>-1.5900000000000034</v>
       </c>
       <c r="H16" s="38">
-        <f t="shared" ref="H16:I16" si="13">H11-H15</f>
+        <f t="shared" ref="H16:I16" si="16">H11-H15</f>
         <v>3.5529999999999973</v>
       </c>
       <c r="I16" s="38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.72200000000000841</v>
       </c>
       <c r="J16" s="38">
-        <f t="shared" ref="J16:K16" si="14">J11-J15</f>
+        <f t="shared" ref="J16:K16" si="17">J11-J15</f>
         <v>5.2750000000000057</v>
       </c>
       <c r="K16" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.88400000000000034</v>
       </c>
       <c r="L16" s="38">
-        <f t="shared" ref="L16:N16" si="15">L11-L15</f>
+        <f t="shared" ref="L16:N16" si="18">L11-L15</f>
         <v>1.9259999999999877</v>
       </c>
       <c r="M16" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-2.2520000000000095</v>
       </c>
       <c r="N16" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9.7040000000000362</v>
       </c>
       <c r="O16" s="39">
-        <f t="shared" ref="O16:P16" si="16">O11-O15</f>
+        <f t="shared" ref="O16:P16" si="19">O11-O15</f>
         <v>23.45999999999998</v>
       </c>
       <c r="P16" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>188.24900000000002</v>
       </c>
       <c r="Q16" s="38">
-        <f t="shared" ref="Q16:R16" si="17">Q11-Q15</f>
+        <f t="shared" ref="Q16:R16" si="20">Q11-Q15</f>
         <v>192.46900000000005</v>
       </c>
       <c r="R16" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>218.28438460523478</v>
       </c>
     </row>
@@ -5376,15 +5376,15 @@
         <v>9</v>
       </c>
       <c r="C18" s="39">
-        <f t="shared" ref="C18" si="18">C16+C17</f>
+        <f t="shared" ref="C18" si="21">C16+C17</f>
         <v>1.2540000000000013</v>
       </c>
       <c r="D18" s="38">
-        <f t="shared" ref="D18:E18" si="19">D16+D17</f>
+        <f t="shared" ref="D18:E18" si="22">D16+D17</f>
         <v>-7.8560000000000016</v>
       </c>
       <c r="E18" s="38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0.13499999999999801</v>
       </c>
       <c r="F18" s="38">
@@ -5392,51 +5392,51 @@
         <v>0.16499999999999915</v>
       </c>
       <c r="G18" s="39">
-        <f t="shared" ref="G18" si="20">G16+G17</f>
+        <f t="shared" ref="G18" si="23">G16+G17</f>
         <v>-1.5900000000000034</v>
       </c>
       <c r="H18" s="38">
-        <f t="shared" ref="H18:M18" si="21">H16+H17</f>
+        <f t="shared" ref="H18:M18" si="24">H16+H17</f>
         <v>3.5529999999999973</v>
       </c>
       <c r="I18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>-0.72200000000000841</v>
       </c>
       <c r="J18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>6.2750000000000057</v>
       </c>
       <c r="K18" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.8840000000000003</v>
       </c>
       <c r="L18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5.9259999999999877</v>
       </c>
       <c r="M18" s="38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1.7479999999999905</v>
       </c>
       <c r="N18" s="38">
-        <f t="shared" ref="N18:R18" si="22">N16+N17</f>
+        <f t="shared" ref="N18:R18" si="25">N16+N17</f>
         <v>13.704000000000036</v>
       </c>
       <c r="O18" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>29.45999999999998</v>
       </c>
       <c r="P18" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>190.24900000000002</v>
       </c>
       <c r="Q18" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>194.46900000000005</v>
       </c>
       <c r="R18" s="38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>220.28438460523478</v>
       </c>
     </row>
@@ -5501,67 +5501,67 @@
         <v>11</v>
       </c>
       <c r="C20" s="37">
-        <f>C18-C19</f>
+        <f t="shared" ref="C20:R20" si="26">C18-C19</f>
         <v>1.2540000000000013</v>
       </c>
       <c r="D20" s="36">
-        <f>D18-D19</f>
+        <f t="shared" si="26"/>
         <v>-7.8560000000000016</v>
       </c>
       <c r="E20" s="36">
-        <f>E18-E19</f>
+        <f t="shared" si="26"/>
         <v>0.13499999999999801</v>
       </c>
       <c r="F20" s="36">
-        <f>F18-F19</f>
+        <f t="shared" si="26"/>
         <v>0.16499999999999915</v>
       </c>
       <c r="G20" s="37">
-        <f>G18-G19</f>
+        <f t="shared" si="26"/>
         <v>-1.5900000000000034</v>
       </c>
       <c r="H20" s="36">
-        <f>H18-H19</f>
+        <f t="shared" si="26"/>
         <v>3.5529999999999973</v>
       </c>
       <c r="I20" s="36">
-        <f>I18-I19</f>
+        <f t="shared" si="26"/>
         <v>-0.72200000000000841</v>
       </c>
       <c r="J20" s="36">
-        <f>J18-J19</f>
+        <f t="shared" si="26"/>
         <v>6.2750000000000057</v>
       </c>
       <c r="K20" s="37">
-        <f>K18-K19</f>
+        <f t="shared" si="26"/>
         <v>3.8840000000000003</v>
       </c>
       <c r="L20" s="36">
-        <f>L18-L19</f>
+        <f t="shared" si="26"/>
         <v>4.9259999999999877</v>
       </c>
       <c r="M20" s="36">
-        <f>M18-M19</f>
+        <f t="shared" si="26"/>
         <v>1.7479999999999905</v>
       </c>
       <c r="N20" s="36">
-        <f>N18-N19</f>
+        <f t="shared" si="26"/>
         <v>14.704000000000036</v>
       </c>
       <c r="O20" s="37">
-        <f>O18-O19</f>
+        <f t="shared" si="26"/>
         <v>27.45999999999998</v>
       </c>
       <c r="P20" s="36">
-        <f>P18-P19</f>
+        <f t="shared" si="26"/>
         <v>186.24900000000002</v>
       </c>
       <c r="Q20" s="36">
-        <f>Q18-Q19</f>
+        <f t="shared" si="26"/>
         <v>199.46900000000005</v>
       </c>
       <c r="R20" s="36">
-        <f>R18-R19</f>
+        <f t="shared" si="26"/>
         <v>225.94812495987316</v>
       </c>
     </row>
@@ -5570,67 +5570,67 @@
         <v>12</v>
       </c>
       <c r="C21" s="41">
-        <f t="shared" ref="C21" si="23">IFERROR(C20/C22,0)</f>
+        <f t="shared" ref="C21" si="27">IFERROR(C20/C22,0)</f>
         <v>0</v>
       </c>
       <c r="D21" s="40">
-        <f t="shared" ref="D21:E21" si="24">IFERROR(D20/D22,0)</f>
+        <f t="shared" ref="D21:E21" si="28">IFERROR(D20/D22,0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F21" s="40">
-        <f t="shared" ref="F21:G21" si="25">IFERROR(F20/F22,0)</f>
+        <f t="shared" ref="F21:G21" si="29">IFERROR(F20/F22,0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="41">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H21" s="40">
-        <f t="shared" ref="H21:I21" si="26">IFERROR(H20/H22,0)</f>
+        <f t="shared" ref="H21:I21" si="30">IFERROR(H20/H22,0)</f>
         <v>0</v>
       </c>
       <c r="I21" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J21" s="40">
-        <f t="shared" ref="J21:K21" si="27">IFERROR(J20/J22,0)</f>
+        <f t="shared" ref="J21:K21" si="31">IFERROR(J20/J22,0)</f>
         <v>5.3754375177817809E-2</v>
       </c>
       <c r="K21" s="41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>2.8469150102560407E-2</v>
       </c>
       <c r="L21" s="40">
-        <f t="shared" ref="L21:N21" si="28">IFERROR(L20/L22,0)</f>
+        <f t="shared" ref="L21:N21" si="32">IFERROR(L20/L22,0)</f>
         <v>1.6859143312181274E-2</v>
       </c>
       <c r="M21" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.9705342113625217E-3</v>
       </c>
       <c r="N21" s="40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.0220425624596596E-2</v>
       </c>
       <c r="O21" s="41">
-        <f t="shared" ref="O21:P21" si="29">IFERROR(O20/O22,0)</f>
+        <f t="shared" ref="O21:P21" si="33">IFERROR(O20/O22,0)</f>
         <v>9.3026420404524746E-2</v>
       </c>
       <c r="P21" s="40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.6267584897518077</v>
       </c>
       <c r="Q21" s="40">
-        <f t="shared" ref="Q21:R21" si="30">IFERROR(Q20/Q22,0)</f>
+        <f t="shared" ref="Q21:R21" si="34">IFERROR(Q20/Q22,0)</f>
         <v>0.66654355136431864</v>
       </c>
       <c r="R21" s="40">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -5690,67 +5690,67 @@
         <v>15</v>
       </c>
       <c r="C24" s="43">
-        <f>IFERROR(C11/C9,0)</f>
+        <f t="shared" ref="C24:R24" si="35">IFERROR(C11/C9,0)</f>
         <v>0.79445295854670506</v>
       </c>
       <c r="D24" s="42">
-        <f>IFERROR(D11/D9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.79414355578506113</v>
       </c>
       <c r="E24" s="42">
-        <f>IFERROR(E11/E9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.81034482758620685</v>
       </c>
       <c r="F24" s="44">
-        <f>IFERROR(F11/F9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.78887928664021678</v>
       </c>
       <c r="G24" s="43">
-        <f>IFERROR(G11/G9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.80589312468786412</v>
       </c>
       <c r="H24" s="42">
-        <f>IFERROR(H11/H9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.82592652228752383</v>
       </c>
       <c r="I24" s="42">
-        <f>IFERROR(I11/I9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.81310682304901183</v>
       </c>
       <c r="J24" s="42">
-        <f>IFERROR(J11/J9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.81545368620037817</v>
       </c>
       <c r="K24" s="43">
-        <f>IFERROR(K11/K9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.8024067941108961</v>
       </c>
       <c r="L24" s="42">
-        <f>IFERROR(L11/L9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.80867609342641222</v>
       </c>
       <c r="M24" s="42">
-        <f>IFERROR(M11/M9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.81484816288799644</v>
       </c>
       <c r="N24" s="42">
-        <f>IFERROR(N11/N9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.82710848813552129</v>
       </c>
       <c r="O24" s="43">
-        <f>IFERROR(O11/O9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.68398102185777365</v>
       </c>
       <c r="P24" s="42">
-        <f>IFERROR(P11/P9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.71022576561369666</v>
       </c>
       <c r="Q24" s="42">
-        <f>IFERROR(Q11/Q9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.66710199229023315</v>
       </c>
       <c r="R24" s="42">
-        <f>IFERROR(R11/R9,0)</f>
+        <f t="shared" si="35"/>
         <v>0.66710199229023315</v>
       </c>
     </row>
@@ -5759,67 +5759,67 @@
         <v>16</v>
       </c>
       <c r="C25" s="46">
-        <f>IFERROR(C16/C9,0)</f>
+        <f t="shared" ref="C25:R25" si="36">IFERROR(C16/C9,0)</f>
         <v>4.6873247860053126E-2</v>
       </c>
       <c r="D25" s="45">
-        <f>IFERROR(D16/D9,0)</f>
+        <f t="shared" si="36"/>
         <v>-0.23863187630995419</v>
       </c>
       <c r="E25" s="45">
-        <f>IFERROR(E16/E9,0)</f>
+        <f t="shared" si="36"/>
         <v>3.3015407190021525E-3</v>
       </c>
       <c r="F25" s="47">
-        <f>IFERROR(F16/F9,0)</f>
+        <f t="shared" si="36"/>
         <v>3.2407589268177543E-3</v>
       </c>
       <c r="G25" s="46">
-        <f>IFERROR(G16/G9,0)</f>
+        <f t="shared" si="36"/>
         <v>-2.6469119360745853E-2</v>
       </c>
       <c r="H25" s="45">
-        <f>IFERROR(H16/H9,0)</f>
+        <f t="shared" si="36"/>
         <v>4.767463703942245E-2</v>
       </c>
       <c r="I25" s="45">
-        <f>IFERROR(I16/I9,0)</f>
+        <f t="shared" si="36"/>
         <v>-8.0114512710689895E-3</v>
       </c>
       <c r="J25" s="45">
-        <f>IFERROR(J16/J9,0)</f>
+        <f t="shared" si="36"/>
         <v>4.9858223062381905E-2</v>
       </c>
       <c r="K25" s="46">
-        <f>IFERROR(K16/K9,0)</f>
+        <f t="shared" si="36"/>
         <v>7.2466144210906018E-3</v>
       </c>
       <c r="L25" s="45">
-        <f>IFERROR(L16/L9,0)</f>
+        <f t="shared" si="36"/>
         <v>1.3207521292499197E-2</v>
       </c>
       <c r="M25" s="45">
-        <f>IFERROR(M16/M9,0)</f>
+        <f t="shared" si="36"/>
         <v>-1.3517974944925716E-2</v>
       </c>
       <c r="N25" s="45">
-        <f>IFERROR(N16/N9,0)</f>
+        <f t="shared" si="36"/>
         <v>5.1548198947150528E-2</v>
       </c>
       <c r="O25" s="46">
-        <f>IFERROR(O16/O9,0)</f>
+        <f t="shared" si="36"/>
         <v>7.1487992394116351E-2</v>
       </c>
       <c r="P25" s="45">
-        <f>IFERROR(P16/P9,0)</f>
+        <f t="shared" si="36"/>
         <v>0.28371262358331328</v>
       </c>
       <c r="Q25" s="45">
-        <f>IFERROR(Q16/Q9,0)</f>
+        <f t="shared" si="36"/>
         <v>0.24764538160258165</v>
       </c>
       <c r="R25" s="45">
-        <f>IFERROR(R16/R9,0)</f>
+        <f t="shared" si="36"/>
         <v>0.26656069981064623</v>
       </c>
     </row>
@@ -5828,67 +5828,67 @@
         <v>17</v>
       </c>
       <c r="C26" s="46">
-        <f>IFERROR(C19/C18,0)</f>
+        <f t="shared" ref="C26:R26" si="37">IFERROR(C19/C18,0)</f>
         <v>0</v>
       </c>
       <c r="D26" s="45">
-        <f>IFERROR(D19/D18,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="E26" s="45">
-        <f>IFERROR(E19/E18,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="F26" s="47">
-        <f>IFERROR(F19/F18,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="G26" s="46">
-        <f>IFERROR(G19/G18,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="H26" s="45">
-        <f>IFERROR(H19/H18,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="I26" s="45">
-        <f>IFERROR(I19/I18,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J26" s="45">
-        <f>IFERROR(J19/J18,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K26" s="46">
-        <f>IFERROR(K19/K18,0)</f>
+        <f t="shared" si="37"/>
         <v>-1.0615711252653925</v>
       </c>
       <c r="L26" s="45">
-        <f>IFERROR(L19/L18,0)</f>
+        <f t="shared" si="37"/>
         <v>0.16874789065136719</v>
       </c>
       <c r="M26" s="45">
-        <f>IFERROR(M19/M18,0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N26" s="45">
-        <f>IFERROR(N19/N18,0)</f>
+        <f t="shared" si="37"/>
         <v>-7.2971395213076287E-2</v>
       </c>
       <c r="O26" s="46">
-        <f>IFERROR(O19/O18,0)</f>
+        <f t="shared" si="37"/>
         <v>6.7888662593346957E-2</v>
       </c>
       <c r="P26" s="45">
-        <f>IFERROR(P19/P18,0)</f>
+        <f t="shared" si="37"/>
         <v>2.102507766138061E-2</v>
       </c>
       <c r="Q26" s="45">
-        <f>IFERROR(Q19/Q18,0)</f>
+        <f t="shared" si="37"/>
         <v>-2.5711038777388676E-2</v>
       </c>
       <c r="R26" s="45">
-        <f>IFERROR(R19/R18,0)</f>
+        <f t="shared" si="37"/>
         <v>-2.5711038777388676E-2</v>
       </c>
     </row>
@@ -5920,51 +5920,51 @@
       <c r="E28" s="49"/>
       <c r="F28" s="51"/>
       <c r="G28" s="50">
-        <f>IFERROR((G9/C9)-1,0)</f>
+        <f t="shared" ref="G28:R28" si="38">IFERROR((G9/C9)-1,0)</f>
         <v>1.2453556610473591</v>
       </c>
       <c r="H28" s="49">
-        <f>IFERROR((H9/D9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>1.2637829956562681</v>
       </c>
       <c r="I28" s="49">
-        <f>IFERROR((I9/E9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>1.2039863047199804</v>
       </c>
       <c r="J28" s="49">
-        <f>IFERROR((J9/F9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>1.0780139058019405</v>
       </c>
       <c r="K28" s="50">
-        <f>IFERROR((K9/G9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>1.0307641085400365</v>
       </c>
       <c r="L28" s="49">
-        <f>IFERROR((L9/H9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>0.95671309341706245</v>
       </c>
       <c r="M28" s="49">
-        <f>IFERROR((M9/I9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>0.84854806315952991</v>
       </c>
       <c r="N28" s="49">
-        <f>IFERROR((N9/J9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>0.77931001890359197</v>
       </c>
       <c r="O28" s="50">
-        <f>IFERROR((O9/K9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>1.6901580483326226</v>
       </c>
       <c r="P28" s="49">
-        <f>IFERROR((P9/L9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>3.5500802326059828</v>
       </c>
       <c r="Q28" s="49">
-        <f>IFERROR((Q9/M9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>3.6652380352115639</v>
       </c>
       <c r="R28" s="49">
-        <f>IFERROR((R9/N9)-1,0)</f>
+        <f t="shared" si="38"/>
         <v>3.3499999999999996</v>
       </c>
     </row>
@@ -5977,51 +5977,51 @@
       <c r="E29" s="52"/>
       <c r="F29" s="54"/>
       <c r="G29" s="53">
-        <f>G12/C12-1</f>
+        <f t="shared" ref="G29:R32" si="39">G12/C12-1</f>
         <v>0.5</v>
       </c>
       <c r="H29" s="52">
-        <f>H12/D12-1</f>
+        <f t="shared" si="39"/>
         <v>0.75</v>
       </c>
       <c r="I29" s="52">
-        <f>I12/E12-1</f>
+        <f t="shared" si="39"/>
         <v>1.25</v>
       </c>
       <c r="J29" s="52">
-        <f>J12/F12-1</f>
+        <f t="shared" si="39"/>
         <v>1.75</v>
       </c>
       <c r="K29" s="53">
-        <f>K12/G12-1</f>
+        <f t="shared" si="39"/>
         <v>1.3333333333333335</v>
       </c>
       <c r="L29" s="52">
-        <f>L12/H12-1</f>
+        <f t="shared" si="39"/>
         <v>1.1428571428571428</v>
       </c>
       <c r="M29" s="52">
-        <f>M12/I12-1</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="N29" s="52">
-        <f>N12/J12-1</f>
+        <f t="shared" si="39"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="O29" s="53">
-        <f>O12/K12-1</f>
+        <f t="shared" si="39"/>
         <v>0.85714285714285721</v>
       </c>
       <c r="P29" s="52">
-        <f>P12/L12-1</f>
+        <f t="shared" si="39"/>
         <v>1.8666666666666667</v>
       </c>
       <c r="Q29" s="52">
-        <f>Q12/M12-1</f>
+        <f t="shared" si="39"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="R29" s="52">
-        <f>R12/N12-1</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -6034,51 +6034,51 @@
       <c r="E30" s="52"/>
       <c r="F30" s="54"/>
       <c r="G30" s="53">
-        <f>G13/C13-1</f>
+        <f t="shared" si="39"/>
         <v>1.7692307692307692</v>
       </c>
       <c r="H30" s="52">
-        <f>H13/D13-1</f>
+        <f t="shared" si="39"/>
         <v>1.4117647058823528</v>
       </c>
       <c r="I30" s="52">
-        <f>I13/E13-1</f>
+        <f t="shared" si="39"/>
         <v>1.2083333333333335</v>
       </c>
       <c r="J30" s="52">
-        <f>J13/F13-1</f>
+        <f t="shared" si="39"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="K30" s="53">
-        <f>K13/G13-1</f>
+        <f t="shared" si="39"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="L30" s="52">
-        <f>L13/H13-1</f>
+        <f t="shared" si="39"/>
         <v>0.95121951219512191</v>
       </c>
       <c r="M30" s="52">
-        <f>M13/I13-1</f>
+        <f t="shared" si="39"/>
         <v>0.81132075471698117</v>
       </c>
       <c r="N30" s="52">
-        <f>N13/J13-1</f>
+        <f t="shared" si="39"/>
         <v>0.83636363636363642</v>
       </c>
       <c r="O30" s="53">
-        <f>O13/K13-1</f>
+        <f t="shared" si="39"/>
         <v>0.90625</v>
       </c>
       <c r="P30" s="52">
-        <f>P13/L13-1</f>
+        <f t="shared" si="39"/>
         <v>0.98750000000000004</v>
       </c>
       <c r="Q30" s="52">
-        <f>Q13/M13-1</f>
+        <f t="shared" si="39"/>
         <v>0.97916666666666674</v>
       </c>
       <c r="R30" s="52">
-        <f>R13/N13-1</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
     </row>
@@ -6091,51 +6091,51 @@
       <c r="E31" s="52"/>
       <c r="F31" s="54"/>
       <c r="G31" s="53">
-        <f>G14/C14-1</f>
+        <f t="shared" si="39"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="H31" s="52">
-        <f>H14/D14-1</f>
+        <f t="shared" si="39"/>
         <v>-0.23076923076923073</v>
       </c>
       <c r="I31" s="52">
-        <f>I14/E14-1</f>
+        <f t="shared" si="39"/>
         <v>1.4</v>
       </c>
       <c r="J31" s="52">
-        <f>J14/F14-1</f>
+        <f t="shared" si="39"/>
         <v>1.5</v>
       </c>
       <c r="K31" s="53">
-        <f>K14/G14-1</f>
+        <f t="shared" si="39"/>
         <v>1.375</v>
       </c>
       <c r="L31" s="52">
-        <f>L14/H14-1</f>
+        <f t="shared" si="39"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M31" s="52">
-        <f>M14/I14-1</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="N31" s="52">
-        <f>N14/J14-1</f>
+        <f t="shared" si="39"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="O31" s="53">
-        <f>O14/K14-1</f>
+        <f t="shared" si="39"/>
         <v>1.7894736842105261</v>
       </c>
       <c r="P31" s="52">
-        <f>P14/L14-1</f>
+        <f t="shared" si="39"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="Q31" s="52">
-        <f>Q14/M14-1</f>
+        <f t="shared" si="39"/>
         <v>2.875</v>
       </c>
       <c r="R31" s="52">
-        <f>R14/N14-1</f>
+        <f t="shared" si="39"/>
         <v>2.5</v>
       </c>
     </row>
@@ -6148,51 +6148,51 @@
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
       <c r="G32" s="53">
-        <f>G15/C15-1</f>
+        <f t="shared" si="39"/>
         <v>1.5</v>
       </c>
       <c r="H32" s="52">
-        <f>H15/D15-1</f>
+        <f t="shared" si="39"/>
         <v>0.70588235294117641</v>
       </c>
       <c r="I32" s="52">
-        <f>I15/E15-1</f>
+        <f t="shared" si="39"/>
         <v>1.2424242424242422</v>
       </c>
       <c r="J32" s="52">
-        <f>J15/F15-1</f>
+        <f t="shared" si="39"/>
         <v>1.0249999999999999</v>
       </c>
       <c r="K32" s="53">
-        <f>K15/G15-1</f>
+        <f t="shared" si="39"/>
         <v>0.94</v>
       </c>
       <c r="L32" s="52">
-        <f>L15/H15-1</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="M32" s="52">
-        <f>M15/I15-1</f>
+        <f t="shared" si="39"/>
         <v>0.86486486486486491</v>
       </c>
       <c r="N32" s="52">
-        <f>N15/J15-1</f>
+        <f t="shared" si="39"/>
         <v>0.80246913580246915</v>
       </c>
       <c r="O32" s="53">
-        <f>O15/K15-1</f>
+        <f t="shared" si="39"/>
         <v>1.0721649484536084</v>
       </c>
       <c r="P32" s="52">
-        <f>P15/L15-1</f>
+        <f t="shared" si="39"/>
         <v>1.4396551724137931</v>
       </c>
       <c r="Q32" s="52">
-        <f>Q15/M15-1</f>
+        <f t="shared" si="39"/>
         <v>1.36231884057971</v>
       </c>
       <c r="R32" s="52">
-        <f>R15/N15-1</f>
+        <f t="shared" si="39"/>
         <v>1.2465753424657535</v>
       </c>
     </row>
@@ -6217,27 +6217,27 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="36">
-        <f t="shared" ref="F34:J34" si="31">F35-F36</f>
+        <f t="shared" ref="F34:J34" si="40">F35-F36</f>
         <v>139</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
       <c r="J34" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>177</v>
       </c>
       <c r="K34" s="26"/>
       <c r="L34" s="33"/>
       <c r="M34" s="33"/>
       <c r="N34" s="36">
-        <f t="shared" ref="N34" si="32">N35-N36</f>
+        <f t="shared" ref="N34" si="41">N35-N36</f>
         <v>855</v>
       </c>
       <c r="O34" s="26"/>
       <c r="P34" s="27"/>
       <c r="Q34" s="36">
-        <f t="shared" ref="Q34" si="33">Q35-Q36</f>
+        <f t="shared" ref="Q34" si="42">Q35-Q36</f>
         <v>1872</v>
       </c>
       <c r="R34" s="86"/>
@@ -6435,26 +6435,26 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="38">
-        <f t="shared" ref="F42:J42" si="34">F39-F38-F35</f>
+        <f t="shared" ref="F42:J42" si="43">F39-F38-F35</f>
         <v>76</v>
       </c>
       <c r="G42" s="26"/>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
       <c r="J42" s="38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="43"/>
         <v>178</v>
       </c>
       <c r="K42" s="26"/>
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
       <c r="N42" s="38">
-        <f t="shared" ref="N42" si="35">N39-N38-N35</f>
+        <f t="shared" ref="N42" si="44">N39-N38-N35</f>
         <v>435</v>
       </c>
       <c r="O42" s="26"/>
       <c r="Q42" s="38">
-        <f t="shared" ref="Q42" si="36">Q39-Q38-Q35</f>
+        <f t="shared" ref="Q42" si="45">Q39-Q38-Q35</f>
         <v>1154</v>
       </c>
       <c r="R42" s="86"/>
@@ -6468,26 +6468,26 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="38">
-        <f t="shared" ref="F43:J43" si="37">F39-F40</f>
+        <f t="shared" ref="F43:J43" si="46">F39-F40</f>
         <v>-27</v>
       </c>
       <c r="G43" s="26"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
       <c r="J43" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>-7</v>
       </c>
       <c r="K43" s="26"/>
       <c r="L43" s="33"/>
       <c r="M43" s="33"/>
       <c r="N43" s="38">
-        <f t="shared" ref="N43" si="38">N39-N40</f>
+        <f t="shared" ref="N43" si="47">N39-N40</f>
         <v>834</v>
       </c>
       <c r="O43" s="26"/>
       <c r="Q43" s="38">
-        <f t="shared" ref="Q43" si="39">Q39-Q40</f>
+        <f t="shared" ref="Q43" si="48">Q39-Q40</f>
         <v>1500</v>
       </c>
       <c r="R43" s="86"/>
@@ -6519,47 +6519,47 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="36">
-        <f t="shared" ref="F45:P45" si="40">SUM(C20:F20)</f>
+        <f t="shared" ref="F45:P45" si="49">SUM(C20:F20)</f>
         <v>-6.3020000000000032</v>
       </c>
       <c r="G45" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>-9.1460000000000079</v>
       </c>
       <c r="H45" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>2.262999999999991</v>
       </c>
       <c r="I45" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>1.4059999999999846</v>
       </c>
       <c r="J45" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>7.5159999999999911</v>
       </c>
       <c r="K45" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>12.989999999999995</v>
       </c>
       <c r="L45" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>14.362999999999985</v>
       </c>
       <c r="M45" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>16.832999999999984</v>
       </c>
       <c r="N45" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>25.262000000000015</v>
       </c>
       <c r="O45" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>48.837999999999994</v>
       </c>
       <c r="P45" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>230.16100000000003</v>
       </c>
       <c r="Q45" s="36">
@@ -6577,27 +6577,27 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="42">
-        <f t="shared" ref="F46:J46" si="41">F45/F43</f>
+        <f t="shared" ref="F46:J46" si="50">F45/F43</f>
         <v>0.23340740740740754</v>
       </c>
       <c r="G46" s="26"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
       <c r="J46" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>-1.0737142857142845</v>
       </c>
       <c r="K46" s="26"/>
       <c r="L46" s="33"/>
       <c r="M46" s="33"/>
       <c r="N46" s="42">
-        <f t="shared" ref="N46" si="42">N45/N43</f>
+        <f t="shared" ref="N46" si="51">N45/N43</f>
         <v>3.029016786570745E-2</v>
       </c>
       <c r="O46" s="25"/>
       <c r="P46" s="24"/>
       <c r="Q46" s="42">
-        <f t="shared" ref="Q46" si="43">Q45/Q43</f>
+        <f t="shared" ref="Q46" si="52">Q45/Q43</f>
         <v>0.28525466666666671</v>
       </c>
       <c r="R46" s="86"/>
@@ -6611,27 +6611,27 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="42">
-        <f t="shared" ref="F47:J47" si="44">F45/F39</f>
+        <f t="shared" ref="F47:J47" si="53">F45/F39</f>
         <v>-2.9311627906976757E-2</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>2.1171830985915466E-2</v>
       </c>
       <c r="K47" s="26"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
       <c r="N47" s="42">
-        <f t="shared" ref="N47" si="45">N45/N39</f>
+        <f t="shared" ref="N47" si="54">N45/N39</f>
         <v>1.9582945736434119E-2</v>
       </c>
       <c r="O47" s="25"/>
       <c r="P47" s="24"/>
       <c r="Q47" s="42">
-        <f t="shared" ref="Q47" si="46">Q45/Q39</f>
+        <f t="shared" ref="Q47" si="55">Q45/Q39</f>
         <v>0.14028918032786888</v>
       </c>
       <c r="R47" s="86"/>
@@ -6645,27 +6645,27 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="42">
-        <f t="shared" ref="F48:J48" si="47">F45/(F43-F38)</f>
+        <f t="shared" ref="F48:J48" si="56">F45/(F43-F38)</f>
         <v>0.23340740740740754</v>
       </c>
       <c r="G48" s="26"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>-1.0737142857142845</v>
       </c>
       <c r="K48" s="26"/>
       <c r="L48" s="33"/>
       <c r="M48" s="33"/>
       <c r="N48" s="42">
-        <f t="shared" ref="N48" si="48">N45/(N43-N38)</f>
+        <f t="shared" ref="N48" si="57">N45/(N43-N38)</f>
         <v>3.029016786570745E-2</v>
       </c>
       <c r="O48" s="25"/>
       <c r="P48" s="24"/>
       <c r="Q48" s="42">
-        <f t="shared" ref="Q48" si="49">Q45/(Q43-Q38)</f>
+        <f t="shared" ref="Q48" si="58">Q45/(Q43-Q38)</f>
         <v>0.28989295392953934</v>
       </c>
       <c r="R48" s="86"/>
@@ -6679,27 +6679,27 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="42">
-        <f t="shared" ref="F49:J49" si="50">F45/F42</f>
+        <f t="shared" ref="F49:J49" si="59">F45/F42</f>
         <v>-8.2921052631578993E-2</v>
       </c>
       <c r="G49" s="26"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
       <c r="J49" s="42">
-        <f t="shared" si="50"/>
+        <f t="shared" si="59"/>
         <v>4.2224719101123548E-2</v>
       </c>
       <c r="K49" s="26"/>
       <c r="L49" s="33"/>
       <c r="M49" s="33"/>
       <c r="N49" s="42">
-        <f t="shared" ref="N49" si="51">N45/N42</f>
+        <f t="shared" ref="N49" si="60">N45/N42</f>
         <v>5.8073563218390835E-2</v>
       </c>
       <c r="O49" s="25"/>
       <c r="P49" s="24"/>
       <c r="Q49" s="42">
-        <f t="shared" ref="Q49" si="52">Q45/Q42</f>
+        <f t="shared" ref="Q49" si="61">Q45/Q42</f>
         <v>0.37078162911611789</v>
       </c>
       <c r="R49" s="86"/>
@@ -6729,55 +6729,55 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="70">
-        <f>SUM(C9:F9)</f>
+        <f t="shared" ref="F51:R51" si="62">SUM(C9:F9)</f>
         <v>151.47800000000001</v>
       </c>
       <c r="G51" s="69">
-        <f>SUM(D9:G9)</f>
+        <f t="shared" si="62"/>
         <v>184.79500000000002</v>
       </c>
       <c r="H51" s="70">
-        <f>SUM(E9:H9)</f>
+        <f t="shared" si="62"/>
         <v>226.39999999999998</v>
       </c>
       <c r="I51" s="70">
-        <f>SUM(F9:I9)</f>
+        <f t="shared" si="62"/>
         <v>275.63099999999997</v>
       </c>
       <c r="J51" s="70">
-        <f>SUM(G9:J9)</f>
+        <f t="shared" si="62"/>
         <v>330.517</v>
       </c>
       <c r="K51" s="69">
-        <f>SUM(H9:K9)</f>
+        <f t="shared" si="62"/>
         <v>392.435</v>
       </c>
       <c r="L51" s="70">
-        <f>SUM(I9:L9)</f>
+        <f t="shared" si="62"/>
         <v>463.73500000000001</v>
       </c>
       <c r="M51" s="70">
-        <f>SUM(J9:M9)</f>
+        <f t="shared" si="62"/>
         <v>540.20699999999999</v>
       </c>
       <c r="N51" s="70">
-        <f>SUM(K9:N9)</f>
+        <f t="shared" si="62"/>
         <v>622.6579999999999</v>
       </c>
       <c r="O51" s="69">
-        <f>SUM(L9:O9)</f>
+        <f t="shared" si="62"/>
         <v>828.83699999999999</v>
       </c>
       <c r="P51" s="70">
-        <f>SUM(M9:P9)</f>
+        <f t="shared" si="62"/>
         <v>1346.5309999999999</v>
       </c>
       <c r="Q51" s="70">
-        <f>SUM(N9:Q9)</f>
+        <f t="shared" si="62"/>
         <v>1957.134</v>
       </c>
       <c r="R51" s="70">
-        <f>SUM(O9:R9)</f>
+        <f t="shared" si="62"/>
         <v>2587.7748499999998</v>
       </c>
     </row>
@@ -6798,15 +6798,15 @@
         <v>1.1819472134567395</v>
       </c>
       <c r="K52" s="82">
-        <f t="shared" ref="K52" si="53">K51/G51-1</f>
+        <f t="shared" ref="K52" si="63">K51/G51-1</f>
         <v>1.1236234746611107</v>
       </c>
       <c r="L52" s="83">
-        <f t="shared" ref="L52" si="54">L51/H51-1</f>
+        <f t="shared" ref="L52" si="64">L51/H51-1</f>
         <v>1.0482994699646646</v>
       </c>
       <c r="M52" s="83">
-        <f t="shared" ref="M52" si="55">M51/I51-1</f>
+        <f t="shared" ref="M52" si="65">M51/I51-1</f>
         <v>0.95989202956126141</v>
       </c>
       <c r="N52" s="83">
@@ -6818,7 +6818,7 @@
         <v>1.1120363881916751</v>
       </c>
       <c r="P52" s="83">
-        <f t="shared" ref="P52" si="56">P51/L51-1</f>
+        <f t="shared" ref="P52" si="66">P51/L51-1</f>
         <v>1.9036648085652366</v>
       </c>
       <c r="Q52" s="83">
@@ -6855,47 +6855,47 @@
       <c r="E54" s="33"/>
       <c r="F54" s="42"/>
       <c r="G54" s="43">
-        <f>G4/C4-1</f>
+        <f t="shared" ref="G54:Q54" si="67">G4/C4-1</f>
         <v>1.2453556610473591</v>
       </c>
       <c r="H54" s="42">
-        <f>H4/D4-1</f>
+        <f t="shared" si="67"/>
         <v>1.2637829956562681</v>
       </c>
       <c r="I54" s="42">
-        <f>I4/E4-1</f>
+        <f t="shared" si="67"/>
         <v>1.2039863047199804</v>
       </c>
       <c r="J54" s="42">
-        <f>J4/F4-1</f>
+        <f t="shared" si="67"/>
         <v>1.0780139058019405</v>
       </c>
       <c r="K54" s="43">
-        <f>K4/G4-1</f>
+        <f t="shared" si="67"/>
         <v>1.0307641085400365</v>
       </c>
       <c r="L54" s="42">
-        <f>L4/H4-1</f>
+        <f t="shared" si="67"/>
         <v>0.95671309341706245</v>
       </c>
       <c r="M54" s="42">
-        <f>M4/I4-1</f>
+        <f t="shared" si="67"/>
         <v>0.84854806315952991</v>
       </c>
       <c r="N54" s="42">
-        <f>N4/J4-1</f>
+        <f t="shared" si="67"/>
         <v>0.77931001890359175</v>
       </c>
       <c r="O54" s="43">
-        <f>O4/K4-1</f>
+        <f t="shared" si="67"/>
         <v>1.6901580483326226</v>
       </c>
       <c r="P54" s="42">
-        <f>P4/L4-1</f>
+        <f t="shared" si="67"/>
         <v>3.5500802326059828</v>
       </c>
       <c r="Q54" s="42">
-        <f>Q4/M4-1</f>
+        <f t="shared" si="67"/>
         <v>3.6652380352115639</v>
       </c>
       <c r="R54" s="86"/>
@@ -6933,19 +6933,19 @@
       <c r="M56" s="66"/>
       <c r="N56" s="112"/>
       <c r="O56" s="113">
-        <f>O6/K6-1</f>
+        <f t="shared" ref="O56:R57" si="68">O6/K6-1</f>
         <v>3.5367521367521366</v>
       </c>
       <c r="P56" s="102">
-        <f>P6/L6-1</f>
+        <f t="shared" si="68"/>
         <v>4.5837104072398187</v>
       </c>
       <c r="Q56" s="102">
-        <f>Q6/M6-1</f>
+        <f t="shared" si="68"/>
         <v>4.8529014844804319</v>
       </c>
       <c r="R56" s="102">
-        <f>R6/N6-1</f>
+        <f t="shared" si="68"/>
         <v>4.8</v>
       </c>
     </row>
@@ -6966,19 +6966,19 @@
       <c r="M57" s="66"/>
       <c r="N57" s="112"/>
       <c r="O57" s="113">
-        <f>O7/K7-1</f>
+        <f t="shared" si="68"/>
         <v>-0.40702997050693879</v>
       </c>
       <c r="P57" s="102">
-        <f>P7/L7-1</f>
+        <f t="shared" si="68"/>
         <v>-0.18511529059487675</v>
       </c>
       <c r="Q57" s="102">
-        <f>Q7/M7-1</f>
+        <f t="shared" si="68"/>
         <v>-0.20291874934476162</v>
       </c>
       <c r="R57" s="102">
-        <f>R7/N7-1</f>
+        <f t="shared" si="68"/>
         <v>-0.25</v>
       </c>
     </row>
